--- a/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
+++ b/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangs\OneDrive\바탕 화면\2024_PSC_CHATBOT\8. 카카오 챗봇\6. 작업 기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A645D9-B4D3-4C51-8FDF-A98A8EDFC381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A660EF9-E7C6-41C5-9B5B-A635CBB002FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="2145" windowWidth="28305" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챗봇_답변리스트1차" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,14 @@
   </si>
   <si>
     <t>'원스탑 취업 지원 서비스 '  소개 / 업무 항복 삭제, 위치(사진 첨부), 공식 계정 홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 채용공고 (월드잡 -&gt; 월드잡플러스) 타이틀 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">청년지원 정책 (1. 국민취업준비제도/2.K-디지털 트레이닝/ 3.국민내일배움카드/ 4. 2025 청년정책) 4가지 항목으로 시나리오 재구성 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,16 +1129,55 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,74 +1189,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1689,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15B082-9267-4401-8E49-096258E0FAE1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1705,10 +1713,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1724,19 +1732,19 @@
       <c r="G1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1755,8 +1763,8 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
@@ -1775,8 +1783,8 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1795,8 +1803,8 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
@@ -1815,10 +1823,10 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="26" t="s">
         <v>9</v>
       </c>
@@ -1837,8 +1845,8 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1857,8 +1865,8 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="26" t="s">
         <v>52</v>
       </c>
@@ -1877,10 +1885,10 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="26" t="s">
         <v>3</v>
       </c>
@@ -1899,8 +1907,8 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
@@ -1919,9 +1927,9 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1941,9 +1949,9 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1961,8 +1969,8 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1985,9 +1993,9 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2007,9 +2015,9 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2027,9 +2035,9 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2047,8 +2055,8 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="26" t="s">
         <v>15</v>
       </c>
@@ -2065,9 +2073,9 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="27"/>
@@ -2085,8 +2093,8 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="26" t="s">
         <v>37</v>
       </c>
@@ -2103,9 +2111,9 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="27"/>
@@ -2121,16 +2129,16 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="9" t="s">
         <v>103</v>
       </c>
@@ -2149,12 +2157,12 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="9" t="s">
         <v>104</v>
       </c>
@@ -2169,12 +2177,12 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>84</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="25" t="s">
         <v>118</v>
       </c>
       <c r="I23" s="14"/>
@@ -2191,12 +2199,12 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="9" t="s">
         <v>104</v>
       </c>
@@ -2211,11 +2219,11 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="27"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
@@ -2231,8 +2239,8 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -2253,12 +2261,12 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="46" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="9" t="s">
         <v>19</v>
       </c>
@@ -2271,8 +2279,8 @@
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
@@ -2291,8 +2299,8 @@
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="26" t="s">
         <v>31</v>
       </c>
@@ -2311,8 +2319,8 @@
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="26" t="s">
         <v>10</v>
       </c>
@@ -2331,8 +2339,8 @@
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="26" t="s">
         <v>11</v>
       </c>
@@ -2351,8 +2359,8 @@
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
@@ -2371,14 +2379,14 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="9" t="s">
         <v>107</v>
       </c>
@@ -2395,12 +2403,12 @@
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="9" t="s">
         <v>108</v>
       </c>
@@ -2417,14 +2425,14 @@
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="9" t="s">
         <v>110</v>
       </c>
@@ -2439,12 +2447,12 @@
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9" t="s">
         <v>66</v>
       </c>
@@ -2457,12 +2465,12 @@
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="9" t="s">
         <v>66</v>
       </c>
@@ -2475,7 +2483,7 @@
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2497,8 +2505,8 @@
       <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -2519,12 +2527,12 @@
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="9" t="s">
         <v>48</v>
       </c>
@@ -2539,12 +2547,12 @@
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="24" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
@@ -2559,12 +2567,12 @@
       <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="24" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="9" t="s">
         <v>48</v>
       </c>
@@ -2579,8 +2587,8 @@
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="26" t="s">
         <v>3</v>
       </c>
@@ -2599,8 +2607,8 @@
       <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2629,7 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="16" t="s">
         <v>47</v>
       </c>
@@ -2636,18 +2644,20 @@
       <c r="G45" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="48" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="27"/>
       <c r="E46" s="9" t="s">
         <v>48</v>
@@ -2656,19 +2666,21 @@
       <c r="G46" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="9" t="s">
         <v>28</v>
       </c>
@@ -2687,22 +2699,25 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:A47"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:D21"/>
@@ -2719,25 +2734,22 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
+++ b/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangs\OneDrive\바탕 화면\2024_PSC_CHATBOT\8. 카카오 챗봇\6. 작업 기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A660EF9-E7C6-41C5-9B5B-A635CBB002FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E5B816-3A82-47C6-873C-05C0AA90999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="420" windowWidth="28305" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챗봇_답변리스트1차" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,14 @@
   </si>
   <si>
     <t xml:space="preserve">청년지원 정책 (1. 국민취업준비제도/2.K-디지털 트레이닝/ 3.국민내일배움카드/ 4. 2025 청년정책) 4가지 항목으로 시나리오 재구성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지급기준(시나리오 추가) / (마일리지 장학금 제도 소개, 마일리지 제공 프로그램 확인 방법, 잔여 마일리지 조회 방법 안내) , 신청방법, 신청대상 일부 내용 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신청기한내 / 신청기한 이외 (신청 취소 방법) 설명 추가 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,49 +1143,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,32 +1194,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15B082-9267-4401-8E49-096258E0FAE1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1713,10 +1721,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1737,14 +1745,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1763,12 +1771,12 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1776,19 +1784,21 @@
         <v>69</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>61</v>
       </c>
@@ -1796,19 +1806,21 @@
       <c r="G4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1823,14 +1835,14 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11" t="s">
         <v>55</v>
       </c>
@@ -1845,12 +1857,12 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11" t="s">
         <v>55</v>
       </c>
@@ -1865,12 +1877,12 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="11" t="s">
         <v>55</v>
       </c>
@@ -1885,14 +1897,14 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1907,12 +1919,12 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="11" t="s">
         <v>55</v>
       </c>
@@ -1927,9 +1939,9 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1949,9 +1961,9 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1969,8 +1981,8 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1993,9 +2005,9 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2015,9 +2027,9 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,9 +2047,9 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2055,12 +2067,12 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="9"/>
       <c r="F17" s="21" t="s">
         <v>76</v>
@@ -2073,12 +2085,12 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
@@ -2093,12 +2105,12 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="13"/>
       <c r="F19" s="22" t="s">
         <v>80</v>
@@ -2111,12 +2123,12 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="36" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="9"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
@@ -2129,16 +2141,16 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="9" t="s">
         <v>103</v>
       </c>
@@ -2157,12 +2169,12 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="9" t="s">
         <v>104</v>
       </c>
@@ -2177,12 +2189,12 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="36" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
@@ -2199,12 +2211,12 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="36" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="9" t="s">
         <v>104</v>
       </c>
@@ -2219,12 +2231,12 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -2239,14 +2251,14 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
@@ -2261,8 +2273,8 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="45" t="s">
         <v>46</v>
       </c>
@@ -2279,12 +2291,12 @@
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="9" t="s">
         <v>48</v>
       </c>
@@ -2299,12 +2311,12 @@
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="9" t="s">
         <v>105</v>
       </c>
@@ -2319,12 +2331,12 @@
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="26" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="9" t="s">
         <v>48</v>
       </c>
@@ -2339,12 +2351,12 @@
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="9" t="s">
         <v>48</v>
       </c>
@@ -2359,12 +2371,12 @@
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="9" t="s">
         <v>48</v>
       </c>
@@ -2379,14 +2391,14 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="9" t="s">
         <v>107</v>
       </c>
@@ -2403,12 +2415,12 @@
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="36" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="9" t="s">
         <v>108</v>
       </c>
@@ -2425,14 +2437,14 @@
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="9" t="s">
         <v>110</v>
       </c>
@@ -2447,12 +2459,12 @@
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="36" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="9" t="s">
         <v>66</v>
       </c>
@@ -2465,12 +2477,12 @@
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="36" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="9" t="s">
         <v>66</v>
       </c>
@@ -2483,14 +2495,14 @@
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="9" t="s">
         <v>48</v>
       </c>
@@ -2505,14 +2517,14 @@
       <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="11" t="s">
         <v>55</v>
       </c>
@@ -2527,12 +2539,12 @@
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="36" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="9" t="s">
         <v>48</v>
       </c>
@@ -2547,12 +2559,12 @@
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="36" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
@@ -2567,12 +2579,12 @@
       <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="36" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="9" t="s">
         <v>48</v>
       </c>
@@ -2587,12 +2599,12 @@
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="26" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="9" t="s">
         <v>48</v>
       </c>
@@ -2607,8 +2619,8 @@
       <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2629,14 +2641,14 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="9" t="s">
         <v>57</v>
       </c>
@@ -2653,12 +2665,12 @@
       <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="28" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="9" t="s">
         <v>48</v>
       </c>
@@ -2675,12 +2687,12 @@
       <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="9" t="s">
         <v>28</v>
       </c>
@@ -2699,25 +2711,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A21:A47"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:D21"/>
@@ -2734,22 +2743,25 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
+++ b/8. 카카오 챗봇/6. 작업 기록/대플센터_챗봇_작업리스트(1차).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangs\OneDrive\바탕 화면\2024_PSC_CHATBOT\8. 카카오 챗봇\6. 작업 기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E5B816-3A82-47C6-873C-05C0AA90999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31530FF4-2A0B-4127-B859-F6290C86EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="420" windowWidth="28305" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12105" yWindow="0" windowWidth="16800" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챗봇_답변리스트1차" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,30 @@
   </si>
   <si>
     <t xml:space="preserve">신청기한내 / 신청기한 이외 (신청 취소 방법) 설명 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">리플렛 교체 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip 안내사항 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2차 수정사항 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사이트 URL주소 교체 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입' , '비교과 프로그램' 시나리오 추가,  채용공고 항목 타이틀 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,89 +1167,89 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15B082-9267-4401-8E49-096258E0FAE1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1718,13 +1742,14 @@
     <col min="6" max="6" width="88.5" customWidth="1"/>
     <col min="7" max="7" width="57.125" customWidth="1"/>
     <col min="8" max="8" width="38.375" customWidth="1"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1743,16 +1768,19 @@
       <c r="H1" s="24" t="s">
         <v>113</v>
       </c>
+      <c r="I1" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1765,18 +1793,20 @@
       <c r="H2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1787,18 +1817,18 @@
       <c r="H3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="9" t="s">
         <v>61</v>
       </c>
@@ -1809,18 +1839,18 @@
       <c r="H4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1828,21 +1858,23 @@
         <v>71</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="11" t="s">
         <v>55</v>
       </c>
@@ -1851,18 +1883,18 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="11" t="s">
         <v>55</v>
       </c>
@@ -1870,19 +1902,21 @@
         <v>68</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="11" t="s">
         <v>55</v>
       </c>
@@ -1891,20 +1925,20 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1913,18 +1947,18 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="11" t="s">
         <v>55</v>
       </c>
@@ -1933,15 +1967,15 @@
         <v>72</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1954,16 +1988,18 @@
         <v>69</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="25"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1974,15 +2010,17 @@
         <v>68</v>
       </c>
       <c r="G12" s="18"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1999,15 +2037,15 @@
       <c r="H13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2021,15 +2059,15 @@
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,15 +2079,15 @@
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2061,36 +2099,36 @@
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="9"/>
       <c r="F17" s="21" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
@@ -2099,58 +2137,58 @@
         <v>77</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="13"/>
       <c r="F19" s="22" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="38" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="9"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
         <v>111</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="9" t="s">
         <v>103</v>
       </c>
@@ -2163,18 +2201,18 @@
       <c r="H21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="9" t="s">
         <v>104</v>
       </c>
@@ -2183,18 +2221,18 @@
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
@@ -2205,18 +2243,18 @@
       <c r="H23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="9" t="s">
         <v>104</v>
       </c>
@@ -2225,18 +2263,18 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -2245,20 +2283,20 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
@@ -2267,14 +2305,14 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="45" t="s">
         <v>46</v>
       </c>
@@ -2285,18 +2323,18 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="9" t="s">
         <v>48</v>
       </c>
@@ -2305,18 +2343,18 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="14"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="9" t="s">
         <v>105</v>
       </c>
@@ -2325,18 +2363,18 @@
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="9" t="s">
         <v>48</v>
       </c>
@@ -2345,18 +2383,18 @@
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="9" t="s">
         <v>48</v>
       </c>
@@ -2365,18 +2403,18 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="9" t="s">
         <v>48</v>
       </c>
@@ -2384,21 +2422,23 @@
         <v>92</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="9" t="s">
         <v>107</v>
       </c>
@@ -2409,18 +2449,18 @@
         <v>106</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="38" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="9" t="s">
         <v>108</v>
       </c>
@@ -2431,20 +2471,20 @@
         <v>109</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="9" t="s">
         <v>110</v>
       </c>
@@ -2453,56 +2493,56 @@
       <c r="H35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="38" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="38" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="9" t="s">
         <v>48</v>
       </c>
@@ -2511,20 +2551,20 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="14"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="11" t="s">
         <v>55</v>
       </c>
@@ -2533,18 +2573,18 @@
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="9" t="s">
         <v>48</v>
       </c>
@@ -2553,18 +2593,18 @@
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
@@ -2573,18 +2613,18 @@
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="9" t="s">
         <v>48</v>
       </c>
@@ -2593,18 +2633,18 @@
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="9" t="s">
         <v>48</v>
       </c>
@@ -2613,14 +2653,14 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2635,20 +2675,20 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="9" t="s">
         <v>57</v>
       </c>
@@ -2659,18 +2699,20 @@
       <c r="H45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="9" t="s">
         <v>48</v>
       </c>
@@ -2681,25 +2723,25 @@
       <c r="H46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -2711,22 +2753,25 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:A47"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:D21"/>
@@ -2743,25 +2788,22 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
